--- a/FTH Field_Trip_Report Activite.xlsx
+++ b/FTH Field_Trip_Report Activite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDEM\Field Trip Report\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0639D69F-26D6-4B78-A36E-84D0896AC4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619872DF-45A9-4B7D-98EE-2351975EDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="259">
   <si>
     <t>Agile Activities</t>
   </si>
@@ -834,9 +834,6 @@
   </si>
   <si>
     <t>1100700126497</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1469,6 +1466,66 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1478,14 +1535,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1541,15 +1607,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,101 +1616,41 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -2733,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,11 +2981,6 @@
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
       <c r="I13" s="18"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>259</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3061,73 +3053,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="105" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="102">
         <v>1</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105">
         <v>2</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="84"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3163,371 +3155,382 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="108" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
       <c r="L6" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="121"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="100"/>
       <c r="L8" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
       <c r="L9" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="75" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
       <c r="L10" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="72" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="75" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="96" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="96" t="s">
+      <c r="A14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
       <c r="L14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="75" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
       <c r="L15" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="72" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="72" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="109"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
       <c r="L18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
       <c r="L19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="75" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="88"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="111"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="113" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="88"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="111"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="96" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="88"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="111"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="75" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="88"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="111"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="90" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="88"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="111"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="89"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="112"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
       <c r="L26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="D24:K25"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C6:C17"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B6:B25"/>
@@ -3544,17 +3547,6 @@
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="D6:K9"/>
     <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="L20:L25"/>
-    <mergeCell ref="D24:K25"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C6:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5925,25 +5917,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="132" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="10" customWidth="1"/>
     <col min="3" max="5" width="21.42578125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -6034,10 +6026,10 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -6068,12 +6060,12 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -6086,12 +6078,12 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -6104,12 +6096,12 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -6122,12 +6114,12 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -6140,12 +6132,12 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -6158,12 +6150,12 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -6176,10 +6168,10 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -6192,12 +6184,12 @@
       <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -6228,12 +6220,12 @@
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -6246,12 +6238,12 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -6264,12 +6256,12 @@
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -6282,12 +6274,12 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -6300,12 +6292,12 @@
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -6318,10 +6310,10 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -6334,12 +6326,12 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -6352,12 +6344,12 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -6370,12 +6362,12 @@
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -6388,12 +6380,12 @@
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
       <c r="H31" s="13"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -6406,12 +6398,12 @@
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -6424,12 +6416,12 @@
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -6442,12 +6434,12 @@
       <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -6460,12 +6452,12 @@
       <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -6478,12 +6470,12 @@
       <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="124" t="s">
+      <c r="B36" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -6496,12 +6488,12 @@
       <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="124" t="s">
+      <c r="B37" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -6532,16 +6524,16 @@
       <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="127" t="s">
@@ -6552,314 +6544,314 @@
       <c r="E41" s="127"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="128" t="s">
+      <c r="B44" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="124" t="s">
+      <c r="B46" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="123" t="s">
+      <c r="B50" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="124" t="s">
+      <c r="B52" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="124" t="s">
+      <c r="B53" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="123" t="s">
+      <c r="B55" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="124" t="s">
+      <c r="B56" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="124" t="s">
+      <c r="B57" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="124" t="s">
+      <c r="B58" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="124" t="s">
+      <c r="B59" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="124" t="s">
+      <c r="B60" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="123"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="124" t="s">
+      <c r="B61" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="124" t="s">
+      <c r="B63" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="123" t="s">
+      <c r="B68" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="124"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="124" t="s">
+      <c r="B69" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="123"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="123"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="124" t="s">
+      <c r="B71" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="123"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="124" t="s">
+      <c r="B72" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="123"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="124" t="s">
+      <c r="B73" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="124" t="s">
+      <c r="B74" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="124" t="s">
+      <c r="B75" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="124" t="s">
+      <c r="B76" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="123"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="124" t="s">
+      <c r="B77" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="124"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="123"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="124" t="s">
+      <c r="B78" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="124" t="s">
+      <c r="B79" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="123"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="124"/>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="123"/>
+      <c r="D80" s="123"/>
+      <c r="E80" s="123"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="125"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="125"/>
-      <c r="E81" s="125"/>
+      <c r="B81" s="132"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="132"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="127" t="s">
@@ -6870,80 +6862,80 @@
       <c r="E82" s="127"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="128" t="s">
+      <c r="B83" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="128" t="s">
+      <c r="B84" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="128"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="128"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="128" t="s">
+      <c r="B85" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="128"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="123" t="s">
+      <c r="B86" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="123"/>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="123" t="s">
+      <c r="B87" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="123"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="123"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="124" t="s">
+      <c r="B88" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="124"/>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="124" t="s">
+      <c r="B89" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
+      <c r="C89" s="123"/>
+      <c r="D89" s="123"/>
+      <c r="E89" s="123"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="123" t="s">
+      <c r="B90" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="123"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="123"/>
-      <c r="C91" s="123"/>
-      <c r="D91" s="123"/>
-      <c r="E91" s="123"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="124"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="129"/>
-      <c r="C92" s="129"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="129"/>
+      <c r="B92" s="131"/>
+      <c r="C92" s="131"/>
+      <c r="D92" s="131"/>
+      <c r="E92" s="131"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="127" t="s">
@@ -6954,72 +6946,72 @@
       <c r="E93" s="127"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="128" t="s">
+      <c r="B94" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="128"/>
-      <c r="D94" s="128"/>
-      <c r="E94" s="128"/>
+      <c r="C94" s="125"/>
+      <c r="D94" s="125"/>
+      <c r="E94" s="125"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="128" t="s">
+      <c r="B95" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="128"/>
-      <c r="D95" s="128"/>
-      <c r="E95" s="128"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="128" t="s">
+      <c r="B96" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="128"/>
-      <c r="D96" s="128"/>
-      <c r="E96" s="128"/>
+      <c r="C96" s="125"/>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="123" t="s">
+      <c r="B97" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="123"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
+      <c r="C97" s="124"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="124"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="123"/>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
+      <c r="B98" s="124"/>
+      <c r="C98" s="124"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="124"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="124"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="123"/>
+      <c r="E99" s="123"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
+      <c r="B100" s="123"/>
+      <c r="C100" s="123"/>
+      <c r="D100" s="123"/>
+      <c r="E100" s="123"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="123"/>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
+      <c r="B101" s="124"/>
+      <c r="C101" s="124"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="123"/>
-      <c r="C102" s="123"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="123"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="124"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="129"/>
-      <c r="C103" s="129"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="129"/>
+      <c r="B103" s="131"/>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="131"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="127" t="s">
@@ -7030,66 +7022,66 @@
       <c r="E104" s="127"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="128" t="s">
+      <c r="B105" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="C105" s="128"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="128" t="s">
+      <c r="B106" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="128"/>
-      <c r="D106" s="128"/>
-      <c r="E106" s="128"/>
+      <c r="C106" s="125"/>
+      <c r="D106" s="125"/>
+      <c r="E106" s="125"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="128" t="s">
+      <c r="B107" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="128"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="123" t="s">
+      <c r="B108" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
+      <c r="C108" s="124"/>
+      <c r="D108" s="124"/>
+      <c r="E108" s="124"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="123"/>
-      <c r="C109" s="123"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="123"/>
+      <c r="B109" s="124"/>
+      <c r="C109" s="124"/>
+      <c r="D109" s="124"/>
+      <c r="E109" s="124"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="124"/>
-      <c r="C110" s="124"/>
-      <c r="D110" s="124"/>
-      <c r="E110" s="124"/>
+      <c r="B110" s="123"/>
+      <c r="C110" s="123"/>
+      <c r="D110" s="123"/>
+      <c r="E110" s="123"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="124"/>
-      <c r="C111" s="124"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
+      <c r="B111" s="123"/>
+      <c r="C111" s="123"/>
+      <c r="D111" s="123"/>
+      <c r="E111" s="123"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="123"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="123"/>
+      <c r="B112" s="124"/>
+      <c r="C112" s="124"/>
+      <c r="D112" s="124"/>
+      <c r="E112" s="124"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="123"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
+      <c r="B113" s="124"/>
+      <c r="C113" s="124"/>
+      <c r="D113" s="124"/>
+      <c r="E113" s="124"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="127" t="s">
@@ -7100,159 +7092,69 @@
       <c r="E115" s="127"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="128" t="s">
+      <c r="B116" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="128"/>
-      <c r="D116" s="128"/>
-      <c r="E116" s="128"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="128" t="s">
+      <c r="B117" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="128"/>
-      <c r="D117" s="128"/>
-      <c r="E117" s="128"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="128" t="s">
+      <c r="B118" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="C118" s="128"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="128"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="123" t="s">
+      <c r="B119" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="C119" s="123"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
+      <c r="C119" s="124"/>
+      <c r="D119" s="124"/>
+      <c r="E119" s="124"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="123"/>
-      <c r="C120" s="123"/>
-      <c r="D120" s="123"/>
-      <c r="E120" s="123"/>
+      <c r="B120" s="124"/>
+      <c r="C120" s="124"/>
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="124"/>
-      <c r="C121" s="124"/>
-      <c r="D121" s="124"/>
-      <c r="E121" s="124"/>
+      <c r="B121" s="123"/>
+      <c r="C121" s="123"/>
+      <c r="D121" s="123"/>
+      <c r="E121" s="123"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="124"/>
-      <c r="C122" s="124"/>
-      <c r="D122" s="124"/>
-      <c r="E122" s="124"/>
+      <c r="B122" s="123"/>
+      <c r="C122" s="123"/>
+      <c r="D122" s="123"/>
+      <c r="E122" s="123"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="123"/>
-      <c r="C123" s="123"/>
-      <c r="D123" s="123"/>
-      <c r="E123" s="123"/>
+      <c r="B123" s="124"/>
+      <c r="C123" s="124"/>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="123"/>
-      <c r="C124" s="123"/>
-      <c r="D124" s="123"/>
-      <c r="E124" s="123"/>
+      <c r="B124" s="124"/>
+      <c r="C124" s="124"/>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B99:E99"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="B81:E81"/>
@@ -7277,6 +7179,96 @@
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="B105:E105"/>
     <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7296,25 +7288,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="132" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="10" customWidth="1"/>
     <col min="3" max="5" width="21.42578125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -7371,10 +7363,10 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -7405,12 +7397,12 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -7423,12 +7415,12 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -7441,12 +7433,12 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -7459,12 +7451,12 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -7477,10 +7469,10 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -7493,10 +7485,10 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="127" t="s">
@@ -7507,52 +7499,52 @@
       <c r="E16" s="127"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="134" t="s">
@@ -7563,12 +7555,12 @@
       <c r="E23" s="134"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="134" t="s">
@@ -7579,16 +7571,16 @@
       <c r="E25" s="134"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="127" t="s">
@@ -7599,44 +7591,44 @@
       <c r="E28" s="127"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="134" t="s">
@@ -7647,12 +7639,12 @@
       <c r="E34" s="134"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="134" t="s">
@@ -7663,21 +7655,39 @@
       <c r="E36" s="134"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="124" t="s">
+      <c r="B37" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -7694,24 +7704,6 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7737,18 +7729,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7801,10 +7793,10 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -7835,12 +7827,12 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -7853,12 +7845,12 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -7871,12 +7863,12 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -7889,12 +7881,12 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -7910,9 +7902,9 @@
       <c r="B14" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -7928,40 +7920,34 @@
       <c r="B15" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="135"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -7969,6 +7955,12 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8092,18 +8084,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8123,6 +8115,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1741EAEC-7076-4E04-9306-5FDE7A9BB449}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C04A3A5C-842B-46C3-842D-89E0B2CE0168}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8135,12 +8135,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1741EAEC-7076-4E04-9306-5FDE7A9BB449}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/FTH Field_Trip_Report Activite.xlsx
+++ b/FTH Field_Trip_Report Activite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDEM\Field Trip Report\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619872DF-45A9-4B7D-98EE-2351975EDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FC6C78-5423-470D-A770-0EECBDB28825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,26 @@
     <sheet name="Appendix" sheetId="3" r:id="rId10"/>
     <sheet name="businessProcess" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="280">
   <si>
     <t>Agile Activities</t>
   </si>
@@ -734,40 +743,19 @@
     <t>vithan@zerobug.co.th</t>
   </si>
   <si>
-    <t>Waiyawut</t>
-  </si>
-  <si>
-    <t>UX/UI Design</t>
-  </si>
-  <si>
     <t>Camin</t>
   </si>
   <si>
-    <t>Chanchai</t>
-  </si>
-  <si>
     <t>Kittipon</t>
   </si>
   <si>
-    <t>Kana</t>
-  </si>
-  <si>
     <t>Mobile Senior PG</t>
   </si>
   <si>
-    <t>Mobile PG</t>
-  </si>
-  <si>
     <t>App Senior PG</t>
   </si>
   <si>
     <t>App PG</t>
-  </si>
-  <si>
-    <t>DevSecOps PIC</t>
-  </si>
-  <si>
-    <t>jimmy.ch@fujitsu.com</t>
   </si>
   <si>
     <t>Identify  main user stories from Personas need
@@ -824,9 +812,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Mochtar Chandra</t>
-  </si>
-  <si>
     <t>Chamvijit</t>
   </si>
   <si>
@@ -834,13 +819,100 @@
   </si>
   <si>
     <t>1100700126497</t>
+  </si>
+  <si>
+    <t>Pipugsmoot</t>
+  </si>
+  <si>
+    <t>Khana</t>
+  </si>
+  <si>
+    <t>Chindamaikul</t>
+  </si>
+  <si>
+    <t>Puttisopongul</t>
+  </si>
+  <si>
+    <t>Kanda</t>
+  </si>
+  <si>
+    <t>3101202298170</t>
+  </si>
+  <si>
+    <t>0818096983</t>
+  </si>
+  <si>
+    <t>khana@zerobug.co.th</t>
+  </si>
+  <si>
+    <t>2839900022695</t>
+  </si>
+  <si>
+    <t>0967369579</t>
+  </si>
+  <si>
+    <t>bpbane@zerobug.co.th</t>
+  </si>
+  <si>
+    <t>1100400532864</t>
+  </si>
+  <si>
+    <t>0899261034</t>
+  </si>
+  <si>
+    <t>kittipon@zerobug.co.th</t>
+  </si>
+  <si>
+    <t>1102001483063</t>
+  </si>
+  <si>
+    <t>0869819290</t>
+  </si>
+  <si>
+    <t>zerobug</t>
+  </si>
+  <si>
+    <t>Git Role</t>
+  </si>
+  <si>
+    <t>Maintainer</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Create Sub-Group</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Create Project</t>
+  </si>
+  <si>
+    <t>Run CICD</t>
+  </si>
+  <si>
+    <t>View CICD</t>
+  </si>
+  <si>
+    <t>View Repo</t>
+  </si>
+  <si>
+    <t>Manage CICD + Var in Group (Owner Role only)</t>
+  </si>
+  <si>
+    <t>Manage CICD + Var in Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,8 +1051,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9933FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,7 +1378,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1331,7 +1424,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1342,9 +1434,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1420,15 +1509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1460,12 +1540,96 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,33 +1672,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,110 +1690,71 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2730,266 +2828,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="130" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="131" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="68" t="s">
+      <c r="J3" s="131" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9198</v>
+      </c>
+      <c r="G4" s="132" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>2</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="23">
+        <v>9440</v>
+      </c>
+      <c r="G5" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="68" t="s">
+      <c r="I5" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>3</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="132" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="132" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>4</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="132" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="132" t="s">
+        <v>263</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>5</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="132" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="132" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>6</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="C9" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="132" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="132" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="129" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="18">
-        <v>9198</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="B13" s="127" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="71">
-        <v>8377</v>
-      </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="B14" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="128"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="18">
-        <v>9440</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="B15" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="B16" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="B17" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="128" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>6</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="B18" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>8</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>9</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>10</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="18"/>
+      <c r="B19" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3053,73 +3240,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
+      <c r="A1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="102">
+      <c r="C4" s="70">
         <v>1</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73">
         <v>2</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3155,382 +3342,371 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="20" t="s">
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="21" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="21" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="21" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="89" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="21" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="92" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="21" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="89" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="21" t="s">
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="86" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="86" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="89" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="21" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="92" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="21" t="s">
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="92" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="21" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="89" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="111"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="83" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="111"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="79"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="86" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="111"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="89" t="s">
+      <c r="A23" s="103"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="111"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="79"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="113" t="s">
+      <c r="A24" s="103"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="111"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="79"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="112"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="L20:L25"/>
-    <mergeCell ref="D24:K25"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C6:C17"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B6:B25"/>
@@ -3547,6 +3723,17 @@
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="D6:K9"/>
     <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="D24:K25"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C6:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3563,1898 +3750,1898 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="39" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="26" customWidth="1"/>
-    <col min="7" max="57" width="3" style="41" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="24" customWidth="1"/>
+    <col min="7" max="57" width="3" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="122" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="122"/>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="122"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="122"/>
-      <c r="AY3" s="122"/>
-      <c r="AZ3" s="122"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="59">
         <v>16</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="59">
         <v>17</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="59">
         <v>18</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="59">
         <v>19</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="59">
         <v>20</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="59">
         <v>21</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="59">
         <v>22</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="59">
         <v>23</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="59">
         <v>24</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="59">
         <v>25</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="59">
         <v>26</v>
       </c>
-      <c r="R4" s="64">
+      <c r="R4" s="59">
         <v>27</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="59">
         <v>28</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="59">
         <v>29</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="59">
         <v>30</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="59">
         <v>31</v>
       </c>
-      <c r="W4" s="64">
+      <c r="W4" s="59">
         <v>1</v>
       </c>
-      <c r="X4" s="64">
+      <c r="X4" s="59">
         <v>2</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="59">
         <v>3</v>
       </c>
-      <c r="Z4" s="64">
+      <c r="Z4" s="59">
         <v>4</v>
       </c>
-      <c r="AA4" s="64">
+      <c r="AA4" s="59">
         <v>5</v>
       </c>
-      <c r="AB4" s="64">
+      <c r="AB4" s="59">
         <v>6</v>
       </c>
-      <c r="AC4" s="64">
+      <c r="AC4" s="59">
         <v>7</v>
       </c>
-      <c r="AD4" s="64">
+      <c r="AD4" s="59">
         <v>8</v>
       </c>
-      <c r="AE4" s="64">
+      <c r="AE4" s="59">
         <v>9</v>
       </c>
-      <c r="AF4" s="64">
+      <c r="AF4" s="59">
         <v>10</v>
       </c>
-      <c r="AG4" s="64">
+      <c r="AG4" s="59">
         <v>11</v>
       </c>
-      <c r="AH4" s="64">
+      <c r="AH4" s="59">
         <v>12</v>
       </c>
-      <c r="AI4" s="64">
+      <c r="AI4" s="59">
         <v>13</v>
       </c>
-      <c r="AJ4" s="64">
+      <c r="AJ4" s="59">
         <v>14</v>
       </c>
-      <c r="AK4" s="64">
+      <c r="AK4" s="59">
         <v>15</v>
       </c>
-      <c r="AL4" s="64">
+      <c r="AL4" s="59">
         <v>16</v>
       </c>
-      <c r="AM4" s="64">
+      <c r="AM4" s="59">
         <v>17</v>
       </c>
-      <c r="AN4" s="64">
+      <c r="AN4" s="59">
         <v>18</v>
       </c>
-      <c r="AO4" s="64">
+      <c r="AO4" s="59">
         <v>19</v>
       </c>
-      <c r="AP4" s="64">
+      <c r="AP4" s="59">
         <v>20</v>
       </c>
-      <c r="AQ4" s="64">
+      <c r="AQ4" s="59">
         <v>21</v>
       </c>
-      <c r="AR4" s="64">
+      <c r="AR4" s="59">
         <v>22</v>
       </c>
-      <c r="AS4" s="64">
+      <c r="AS4" s="59">
         <v>23</v>
       </c>
-      <c r="AT4" s="64">
+      <c r="AT4" s="59">
         <v>24</v>
       </c>
-      <c r="AU4" s="64">
+      <c r="AU4" s="59">
         <v>25</v>
       </c>
-      <c r="AV4" s="64">
+      <c r="AV4" s="59">
         <v>26</v>
       </c>
-      <c r="AW4" s="64">
+      <c r="AW4" s="59">
         <v>27</v>
       </c>
-      <c r="AX4" s="64">
+      <c r="AX4" s="59">
         <v>28</v>
       </c>
-      <c r="AY4" s="64">
+      <c r="AY4" s="59">
         <v>29</v>
       </c>
-      <c r="AZ4" s="64">
+      <c r="AZ4" s="59">
         <v>30</v>
       </c>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-      <c r="BA6" s="28"/>
-      <c r="BB6" s="28"/>
-      <c r="BC6" s="28"/>
-      <c r="BD6" s="28"/>
-      <c r="BE6" s="28"/>
-    </row>
-    <row r="7" spans="1:57" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="E6" s="43"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="26"/>
+      <c r="BE6" s="26"/>
+    </row>
+    <row r="7" spans="1:57" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="50"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="28"/>
-      <c r="BA8" s="28"/>
-      <c r="BB8" s="28"/>
-      <c r="BC8" s="28"/>
-      <c r="BD8" s="28"/>
-      <c r="BE8" s="28"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="26"/>
+      <c r="BD8" s="26"/>
+      <c r="BE8" s="26"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28"/>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="28"/>
-      <c r="AZ10" s="28"/>
-      <c r="BA10" s="28"/>
-      <c r="BB10" s="28"/>
-      <c r="BC10" s="28"/>
-      <c r="BD10" s="28"/>
-      <c r="BE10" s="28"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
     </row>
     <row r="11" spans="1:57" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="28"/>
-      <c r="BE11" s="28"/>
+      <c r="E11" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="26"/>
     </row>
     <row r="12" spans="1:57" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>8</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="28"/>
-      <c r="BB12" s="28"/>
-      <c r="BC12" s="28"/>
-      <c r="BD12" s="28"/>
-      <c r="BE12" s="28"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>9</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="28"/>
-      <c r="BE13" s="28"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>10</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="28"/>
-    </row>
-    <row r="15" spans="1:57" s="27" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="E14" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="26"/>
+    </row>
+    <row r="15" spans="1:57" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>11</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="59" t="s">
+      <c r="E15" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="23"/>
-      <c r="BD15" s="23"/>
-      <c r="BE15" s="23"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
     </row>
     <row r="16" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>12</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
+      <c r="E16" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="26"/>
     </row>
     <row r="17" spans="1:57" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>13</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="B17" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
+      <c r="E17" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
+      <c r="E18" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>15</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
+      <c r="E19" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="26"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>16</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>161</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="28"/>
-      <c r="BE20" s="28"/>
+      <c r="E20" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="26"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="26"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>17</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="28"/>
-      <c r="AZ21" s="28"/>
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="28"/>
-      <c r="BD21" s="28"/>
-      <c r="BE21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="26"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>18</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="28"/>
-      <c r="AZ22" s="28"/>
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="28"/>
-      <c r="BC22" s="28"/>
-      <c r="BD22" s="28"/>
-      <c r="BE22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
     </row>
     <row r="23" spans="1:57" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>244</v>
+      <c r="B23" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="28"/>
-      <c r="BE23" s="28"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>20</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
-      <c r="BD24" s="28"/>
-      <c r="BE24" s="28"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <v>21</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
-      <c r="BA25" s="28"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="28"/>
-      <c r="BE25" s="28"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>22</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="50"/>
-      <c r="AX26" s="50"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="28"/>
-      <c r="BA26" s="28"/>
-      <c r="BB26" s="28"/>
-      <c r="BC26" s="28"/>
-      <c r="BD26" s="28"/>
-      <c r="BE26" s="28"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <v>23</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="50"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
-      <c r="AP27" s="50"/>
-      <c r="AQ27" s="50"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="28"/>
-      <c r="AU27" s="28"/>
-      <c r="AV27" s="28"/>
-      <c r="AW27" s="50"/>
-      <c r="AX27" s="50"/>
-      <c r="AY27" s="28"/>
-      <c r="AZ27" s="28"/>
-      <c r="BA27" s="28"/>
-      <c r="BB27" s="28"/>
-      <c r="BC27" s="28"/>
-      <c r="BD27" s="28"/>
-      <c r="BE27" s="28"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>146</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="66"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="61"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
+      <c r="E29" s="61"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="66"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="61"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>150</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="66"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="61"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="66"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="61"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>151</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="66"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="61"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="66"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="61"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5477,282 +5664,282 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="26" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="26"/>
-    <col min="5" max="5" width="51.28515625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="5.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="24" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="24"/>
+    <col min="5" max="5" width="51.28515625" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>3</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>4</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>5</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>6</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>6</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>7</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>8</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>9</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>10</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="D13" s="28">
+      <c r="B13" s="27"/>
+      <c r="D13" s="26">
         <v>10</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>11</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="D14" s="28">
+      <c r="B14" s="27"/>
+      <c r="D14" s="26">
         <v>11</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="D15" s="28">
+      <c r="B15" s="27"/>
+      <c r="D15" s="26">
         <v>12</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>13</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="D16" s="28">
+      <c r="B16" s="27"/>
+      <c r="D16" s="26">
         <v>13</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>14</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="D17" s="28">
+      <c r="B17" s="27"/>
+      <c r="D17" s="26">
         <v>14</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>15</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="D18" s="28">
+      <c r="B18" s="27"/>
+      <c r="D18" s="26">
         <v>15</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>16</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="D19" s="28">
+      <c r="B19" s="27"/>
+      <c r="D19" s="26">
         <v>16</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>17</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="D20" s="28">
+      <c r="B20" s="27"/>
+      <c r="D20" s="26">
         <v>17</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>18</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="D21" s="28">
+      <c r="B21" s="27"/>
+      <c r="D21" s="26">
         <v>18</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="46" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="46" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="46" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="46"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5772,43 +5959,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="25" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -5818,7 +6005,7 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -5828,7 +6015,7 @@
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -5838,7 +6025,7 @@
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -5848,7 +6035,7 @@
       <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -5858,7 +6045,7 @@
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -5868,7 +6055,7 @@
       <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -5878,7 +6065,7 @@
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -5917,25 +6104,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="132" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="116" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="10" customWidth="1"/>
     <col min="3" max="5" width="21.42578125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -6026,10 +6213,10 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -6042,12 +6229,12 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -6060,12 +6247,12 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -6078,12 +6265,12 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -6096,12 +6283,12 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -6114,12 +6301,12 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -6132,12 +6319,12 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -6150,12 +6337,12 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -6168,10 +6355,10 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -6184,12 +6371,12 @@
       <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -6220,12 +6407,12 @@
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -6238,12 +6425,12 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -6256,12 +6443,12 @@
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -6274,12 +6461,12 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -6292,12 +6479,12 @@
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -6310,10 +6497,10 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -6326,12 +6513,12 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -6344,12 +6531,12 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -6362,12 +6549,12 @@
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -6380,12 +6567,12 @@
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
       <c r="H31" s="13"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -6398,12 +6585,12 @@
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -6416,12 +6603,12 @@
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -6434,12 +6621,12 @@
       <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -6452,12 +6639,12 @@
       <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -6470,12 +6657,12 @@
       <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -6488,12 +6675,12 @@
       <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -6524,637 +6711,727 @@
       <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="123"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="124" t="s">
+      <c r="B55" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="123" t="s">
+      <c r="B57" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="123"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="123" t="s">
+      <c r="B63" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="123"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="123"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="123" t="s">
+      <c r="B64" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="123"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="123"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="123" t="s">
+      <c r="B65" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="123"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="115"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="124" t="s">
+      <c r="B68" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="124"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="123" t="s">
+      <c r="B69" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="123"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="115"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="123" t="s">
+      <c r="B70" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="123"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="123"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="115"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="123" t="s">
+      <c r="B71" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
+      <c r="C71" s="115"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="115"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="123" t="s">
+      <c r="B72" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="123"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="115"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="123" t="s">
+      <c r="B73" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="123" t="s">
+      <c r="B75" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="123"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="123"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="115"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="123"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="115"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="123" t="s">
+      <c r="B79" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="123"/>
-      <c r="D79" s="123"/>
-      <c r="E79" s="123"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="115"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="123"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="123"/>
-      <c r="E80" s="123"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="115"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="132"/>
-      <c r="C81" s="132"/>
-      <c r="D81" s="132"/>
-      <c r="E81" s="132"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="116"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="127" t="s">
+      <c r="B82" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
+      <c r="C82" s="118"/>
+      <c r="D82" s="118"/>
+      <c r="E82" s="118"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="125" t="s">
+      <c r="B83" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="125"/>
-      <c r="D83" s="125"/>
-      <c r="E83" s="125"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="125" t="s">
+      <c r="B84" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="125"/>
-      <c r="D84" s="125"/>
-      <c r="E84" s="125"/>
+      <c r="C84" s="119"/>
+      <c r="D84" s="119"/>
+      <c r="E84" s="119"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="125" t="s">
+      <c r="B85" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="125"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="124" t="s">
+      <c r="B86" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="124" t="s">
+      <c r="B87" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="123" t="s">
+      <c r="B88" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
+      <c r="C88" s="115"/>
+      <c r="D88" s="115"/>
+      <c r="E88" s="115"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="123" t="s">
+      <c r="B89" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="123"/>
-      <c r="D89" s="123"/>
-      <c r="E89" s="123"/>
+      <c r="C89" s="115"/>
+      <c r="D89" s="115"/>
+      <c r="E89" s="115"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="124" t="s">
+      <c r="B90" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="131"/>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
+      <c r="B92" s="120"/>
+      <c r="C92" s="120"/>
+      <c r="D92" s="120"/>
+      <c r="E92" s="120"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="127" t="s">
+      <c r="B93" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="127"/>
-      <c r="D93" s="127"/>
-      <c r="E93" s="127"/>
+      <c r="C93" s="118"/>
+      <c r="D93" s="118"/>
+      <c r="E93" s="118"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="125" t="s">
+      <c r="B94" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="125"/>
-      <c r="D94" s="125"/>
-      <c r="E94" s="125"/>
+      <c r="C94" s="119"/>
+      <c r="D94" s="119"/>
+      <c r="E94" s="119"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="125" t="s">
+      <c r="B95" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="125"/>
-      <c r="D95" s="125"/>
-      <c r="E95" s="125"/>
+      <c r="C95" s="119"/>
+      <c r="D95" s="119"/>
+      <c r="E95" s="119"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="125" t="s">
+      <c r="B96" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="125"/>
-      <c r="D96" s="125"/>
-      <c r="E96" s="125"/>
+      <c r="C96" s="119"/>
+      <c r="D96" s="119"/>
+      <c r="E96" s="119"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="124" t="s">
+      <c r="B97" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="124"/>
-      <c r="D97" s="124"/>
-      <c r="E97" s="124"/>
+      <c r="C97" s="114"/>
+      <c r="D97" s="114"/>
+      <c r="E97" s="114"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="124"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124"/>
-      <c r="E98" s="124"/>
+      <c r="B98" s="114"/>
+      <c r="C98" s="114"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="123"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="123"/>
-      <c r="E99" s="123"/>
+      <c r="B99" s="115"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="123"/>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="123"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="124"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
+      <c r="B101" s="114"/>
+      <c r="C101" s="114"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="114"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="131"/>
-      <c r="C103" s="131"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="131"/>
+      <c r="B103" s="120"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="120"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="127" t="s">
+      <c r="B104" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="127"/>
-      <c r="D104" s="127"/>
-      <c r="E104" s="127"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="125" t="s">
+      <c r="B105" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="119"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="125" t="s">
+      <c r="B106" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="125"/>
-      <c r="D106" s="125"/>
-      <c r="E106" s="125"/>
+      <c r="C106" s="119"/>
+      <c r="D106" s="119"/>
+      <c r="E106" s="119"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="125" t="s">
+      <c r="B107" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="125"/>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
+      <c r="C107" s="119"/>
+      <c r="D107" s="119"/>
+      <c r="E107" s="119"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="124" t="s">
+      <c r="B108" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="124"/>
-      <c r="D108" s="124"/>
-      <c r="E108" s="124"/>
+      <c r="C108" s="114"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="114"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="124"/>
-      <c r="C109" s="124"/>
-      <c r="D109" s="124"/>
-      <c r="E109" s="124"/>
+      <c r="B109" s="114"/>
+      <c r="C109" s="114"/>
+      <c r="D109" s="114"/>
+      <c r="E109" s="114"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="123"/>
-      <c r="C110" s="123"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="123"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="115"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="123"/>
-      <c r="C111" s="123"/>
-      <c r="D111" s="123"/>
-      <c r="E111" s="123"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="115"/>
+      <c r="E111" s="115"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="124"/>
-      <c r="C112" s="124"/>
-      <c r="D112" s="124"/>
-      <c r="E112" s="124"/>
+      <c r="B112" s="114"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="124"/>
-      <c r="C113" s="124"/>
-      <c r="D113" s="124"/>
-      <c r="E113" s="124"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="127" t="s">
+      <c r="B115" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C115" s="127"/>
-      <c r="D115" s="127"/>
-      <c r="E115" s="127"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="118"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="125" t="s">
+      <c r="B116" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="125"/>
-      <c r="D116" s="125"/>
-      <c r="E116" s="125"/>
+      <c r="C116" s="119"/>
+      <c r="D116" s="119"/>
+      <c r="E116" s="119"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="125" t="s">
+      <c r="B117" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="125"/>
-      <c r="D117" s="125"/>
-      <c r="E117" s="125"/>
+      <c r="C117" s="119"/>
+      <c r="D117" s="119"/>
+      <c r="E117" s="119"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="125" t="s">
+      <c r="B118" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="C118" s="125"/>
-      <c r="D118" s="125"/>
-      <c r="E118" s="125"/>
+      <c r="C118" s="119"/>
+      <c r="D118" s="119"/>
+      <c r="E118" s="119"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="124" t="s">
+      <c r="B119" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="C119" s="124"/>
-      <c r="D119" s="124"/>
-      <c r="E119" s="124"/>
+      <c r="C119" s="114"/>
+      <c r="D119" s="114"/>
+      <c r="E119" s="114"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="124"/>
-      <c r="C120" s="124"/>
-      <c r="D120" s="124"/>
-      <c r="E120" s="124"/>
+      <c r="B120" s="114"/>
+      <c r="C120" s="114"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="123"/>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123"/>
-      <c r="E121" s="123"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="123"/>
-      <c r="C122" s="123"/>
-      <c r="D122" s="123"/>
-      <c r="E122" s="123"/>
+      <c r="B122" s="115"/>
+      <c r="C122" s="115"/>
+      <c r="D122" s="115"/>
+      <c r="E122" s="115"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="124"/>
-      <c r="C123" s="124"/>
-      <c r="D123" s="124"/>
-      <c r="E123" s="124"/>
+      <c r="B123" s="114"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="114"/>
+      <c r="E123" s="114"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="124"/>
-      <c r="C124" s="124"/>
-      <c r="D124" s="124"/>
-      <c r="E124" s="124"/>
+      <c r="B124" s="114"/>
+      <c r="C124" s="114"/>
+      <c r="D124" s="114"/>
+      <c r="E124" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="B81:E81"/>
@@ -7179,96 +7456,6 @@
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="B105:E105"/>
     <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7288,25 +7475,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="132" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="116" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="10" customWidth="1"/>
     <col min="3" max="5" width="21.42578125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -7363,10 +7550,10 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -7379,12 +7566,12 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -7397,12 +7584,12 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -7415,12 +7602,12 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -7433,12 +7620,12 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -7451,12 +7638,12 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -7469,10 +7656,10 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -7485,209 +7672,191 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -7704,6 +7873,24 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7729,18 +7916,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7793,10 +7980,10 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -7809,12 +7996,12 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -7827,12 +8014,12 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -7845,12 +8032,12 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -7863,12 +8050,12 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -7881,12 +8068,12 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -7899,12 +8086,12 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -7917,37 +8104,43 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="135"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -7955,12 +8148,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7970,6 +8157,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005AE1DD409673794798FE50AD5A98AEA5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a683212c5fd5f3fcc7462d9f06766fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201f2a4fedf8c1cdd359ed0eb52431fc">
     <xsd:element name="properties">
@@ -8083,22 +8285,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C04A3A5C-842B-46C3-842D-89E0B2CE0168}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1741EAEC-7076-4E04-9306-5FDE7A9BB449}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554DB726-87A4-42B2-AC94-505BFDE2D5EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8112,27 +8322,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1741EAEC-7076-4E04-9306-5FDE7A9BB449}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C04A3A5C-842B-46C3-842D-89E0B2CE0168}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>